--- a/hello.xlsx
+++ b/hello.xlsx
@@ -81,22 +81,26 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100">
+        <a:solidFill>
+          <a:srgbClr val="5B9BD5"/>
+        </a:solidFill>
+        <a:ln w="12700">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:srgbClr val="5B9BD5"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchor="t" rtlCol="false"/>
+        <a:bodyPr anchor="t" rtlCol="false" bIns="45720" lIns="45720" rIns="45720" vert="horz" horzOverflow="clip" vertOverflow="clip" tIns="45720" wrap="square">
+          <a:normAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Rectangle
+Hello, world!!</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -128,22 +132,25 @@
         <a:prstGeom prst="smileyFace">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100">
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="12700">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchor="t" rtlCol="false"/>
+        <a:bodyPr anchor="t" rtlCol="false" bIns="45720" lIns="45720" rIns="45720" vert="horz" horzOverflow="clip" vertOverflow="clip" tIns="45720" wrap="square">
+          <a:normAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t/>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -175,22 +182,25 @@
         <a:prstGeom prst="mathDivide">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100">
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchor="t" rtlCol="false"/>
+        <a:bodyPr anchor="t" rtlCol="false" bIns="45720" lIns="45720" rIns="45720" vert="horz" horzOverflow="clip" vertOverflow="clip" tIns="45720" wrap="square">
+          <a:normAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t/>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
